--- a/pred_ohlcv/54_21/2020-01-19 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 CTXC ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>-92328.75705054664</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-491787.116225426</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-492952.839325426</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-459331.009425426</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-551840.3874692146</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-497298.3761692146</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-497318.3761692146</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-441906.1797692146</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-443461.3732692146</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-443271.4903692146</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-443256.5160692146</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-443266.5160692146</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-612410.7998692145</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-581809.4129692146</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-583520.4993692146</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-584920.4993692146</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-584963.8054692147</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-564963.8054692147</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-564197.7442692147</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-564197.7442692147</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-564197.7442692147</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-617850.1178692147</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-611323.1178692147</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-623108.3968692147</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-625356.5622692148</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-625462.1244692148</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-628336.5611692148</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-629091.4712692148</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-630625.4613692148</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-631615.4613692148</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-644799.4613692148</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-642631.8657692148</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-697664.0587487377</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 CTXC ohlcv.xlsx
@@ -2810,7 +2810,7 @@
         <v>-459331.009425426</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-551840.3874692146</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-506305.6616692146</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-506368.5544692146</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-554354.3925692146</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-547793.6971692146</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-497298.3761692146</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-497342.1651692146</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-441906.1797692146</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-443461.3732692146</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-443271.4903692146</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-443256.5160692146</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-443266.5160692146</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-612410.7998692145</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-625462.1244692148</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-628336.5611692148</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-628336.5611692148</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-628336.5611692148</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-629091.4712692148</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-630625.4613692148</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-631625.4613692148</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-631615.4613692148</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-644799.4613692148</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-642631.8657692148</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-697664.0587487377</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-714978.4021487377</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-714862.4332284083</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-722939.5679284084</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-719138.8564527958</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-720950.6517527958</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-709912.7047527957</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-709912.7047527957</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
